--- a/biology/Zoologie/Cyrtodactylus_feae/Cyrtodactylus_feae.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_feae/Cyrtodactylus_feae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus feae est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus feae est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Birmanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Birmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Leonardo Fea[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Leonardo Fea.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1893 : Concluding report on the reptiles and batrachians obtained in Burma by Signor L. Fea, dealing with the collection made in Pegu and the Karin Hills in 1887–88. Annali del Museo Civico di Storia Naturale di Genova, sér. 2, vol. 13, p. 304–347 (texte intégral).</t>
         </is>
